--- a/sales summary/Account Summary.xlsx
+++ b/sales summary/Account Summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62A07FCF-10FE-4425-BAFD-0CBBDF5C42A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="hidden" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="Expenses" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="Debts" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,7 +580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1443,11 +1444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1561,7 +1562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1733,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/sales summary/Account Summary.xlsx
+++ b/sales summary/Account Summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62A07FCF-10FE-4425-BAFD-0CBBDF5C42A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0465F368-AD80-4C1E-A191-4459FFE17068}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>S.No</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Mouse pad order cost with shipping cost</t>
+  </si>
+  <si>
+    <t>Lvvkee Blue Aviator</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,10 +1541,44 @@
         <v>59</v>
       </c>
       <c r="D5">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>3010</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/sales summary/Account Summary.xlsx
+++ b/sales summary/Account Summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0465F368-AD80-4C1E-A191-4459FFE17068}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E6CC851-975E-4D44-BF89-57821321FD82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>S.No</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>Lvvkee Blue Aviator</t>
+  </si>
+  <si>
+    <t>action camera</t>
+  </si>
+  <si>
+    <t>viethdia black glasses</t>
+  </si>
+  <si>
+    <t>mocute gamepad</t>
+  </si>
+  <si>
+    <t>SBA watch from sunil</t>
   </si>
 </sst>
 </file>
@@ -1448,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,6 +1591,74 @@
       </c>
       <c r="E7" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9">
+        <v>1230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>1600</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>810</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/sales summary/Account Summary.xlsx
+++ b/sales summary/Account Summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E6CC851-975E-4D44-BF89-57821321FD82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="hidden" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="Expenses" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="Debts" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>S.No</t>
   </si>
@@ -245,11 +244,14 @@
   <si>
     <t>SBA watch from sunil</t>
   </si>
+  <si>
+    <t>Sun glasses from Aliexpress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,7 +597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1459,11 +1461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,13 +1663,31 @@
         <v>66</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <f>11.39*70</f>
+        <v>797.30000000000007</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1679,7 +1699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1851,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/sales summary/Account Summary.xlsx
+++ b/sales summary/Account Summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2872F1D9-E6AA-4972-8E8E-17E280372497}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="hidden" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="Expenses" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="Debts" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>S.No</t>
   </si>
@@ -251,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1461,11 +1462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,13 +1682,30 @@
         <v>67</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>1350</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1699,7 +1717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1871,7 +1889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
